--- a/Temporary_Table.xlsx
+++ b/Temporary_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27C08337AD3375F7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1330" documentId="11_2E22529D54DCCE836B02CE998F4CD45F6C2A2976" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5B67279-5D91-4FF7-9361-D90A79C6DCD0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A371DB-8314-4BC5-91D8-01FBAE1D90BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InteractableObject" sheetId="3" r:id="rId1"/>
@@ -20,19 +20,18 @@
     <sheet name="Area_Monster_Relation" sheetId="14" r:id="rId5"/>
     <sheet name="Area_Resource_Relation" sheetId="20" r:id="rId6"/>
     <sheet name="Area_FarmingSpot_Relation" sheetId="15" r:id="rId7"/>
-    <sheet name="Quest_Gathering" sheetId="21" r:id="rId8"/>
-    <sheet name="Quest_Hunting" sheetId="16" r:id="rId9"/>
-    <sheet name="Quest_Investigation" sheetId="18" r:id="rId10"/>
-    <sheet name="Quest_Investigation_Condition" sheetId="29" r:id="rId11"/>
-    <sheet name="Monster" sheetId="8" r:id="rId12"/>
-    <sheet name="Monster_Behavior_Pattern_Enum" sheetId="9" r:id="rId13"/>
-    <sheet name="Monster_Property" sheetId="30" r:id="rId14"/>
-    <sheet name="Resource_Combination" sheetId="33" r:id="rId15"/>
-    <sheet name="Resource" sheetId="19" r:id="rId16"/>
-    <sheet name="Item" sheetId="22" r:id="rId17"/>
-    <sheet name="Tool" sheetId="27" r:id="rId18"/>
-    <sheet name="Armor" sheetId="23" r:id="rId19"/>
-    <sheet name="Weapon" sheetId="28" r:id="rId20"/>
+    <sheet name="Quest" sheetId="34" r:id="rId8"/>
+    <sheet name="Quest_Objectives" sheetId="21" r:id="rId9"/>
+    <sheet name="Quest_Object_Type" sheetId="29" r:id="rId10"/>
+    <sheet name="Monster" sheetId="8" r:id="rId11"/>
+    <sheet name="Monster_Behavior_Pattern_Enum" sheetId="9" r:id="rId12"/>
+    <sheet name="Monster_Property" sheetId="30" r:id="rId13"/>
+    <sheet name="Resource_Combination" sheetId="33" r:id="rId14"/>
+    <sheet name="Resource" sheetId="19" r:id="rId15"/>
+    <sheet name="Item" sheetId="22" r:id="rId16"/>
+    <sheet name="Tool" sheetId="27" r:id="rId17"/>
+    <sheet name="Armor" sheetId="23" r:id="rId18"/>
+    <sheet name="Weapon" sheetId="28" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -73,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="246">
   <si>
     <t>변수 설명</t>
   </si>
@@ -354,10 +353,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>퀘스트 설명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Quest_explanation</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -406,14 +401,6 @@
     <t>Reward_item3_number</t>
   </si>
   <si>
-    <t>요구 아이템</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구 아이템 개수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>나타나는 날짜</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -433,34 +420,6 @@
     <t>Object_id</t>
   </si>
   <si>
-    <t>토벌 몬스터</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>토벌 몬스터 개수</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Require_item_number</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Require_monster_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Require_monster_number</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구 조건</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Require_condition_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Resource_id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -691,10 +650,6 @@
     <t>Weapon_type_Enum</t>
   </si>
   <si>
-    <t>요구 조건 id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Monster_property1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -751,22 +706,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>퀘스트에서 잡아야하는 몬스터의 id (외래키)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트에서 요구하는 요구사항 (외래키)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>퀘스트 클리어를 위한 요구조건의 id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구조건에 대한 설명</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>몬스터의 id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -959,6 +898,114 @@
   </si>
   <si>
     <t>Floor_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>목표 id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Objective_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브젝트 타입</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요 오브젝트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_Type</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 타입 id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest_type_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>타입 이름</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type_name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type_description</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 필요</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 토벌</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>장소 조사</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest_script</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 스크립트</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구 오브젝트 개수</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Object_number</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 이미지</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#변수 설명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#데이터 타입</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#변수명</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quest_image</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1066,19 +1113,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - 강조색1" xfId="2" builtinId="30"/>
@@ -1461,10 +1508,10 @@
         <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>11</v>
@@ -1495,10 +1542,10 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -1535,58 +1582,58 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N10" s="1"/>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
+      <c r="O11" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="O12" s="9" t="s">
+      <c r="O12" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="O13" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
+      <c r="O13" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N14" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+        <v>188</v>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="N15" s="3"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1604,78 +1651,42 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3557080F-A2D6-4B8B-833F-9990164D9679}">
-  <dimension ref="A1:S16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC21B15-27E1-4B3D-BB3C-DDBDFCD41B40}">
+  <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="F1" sqref="F1"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9:S16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="P8" sqref="P8:T15"/>
+      <selection pane="topRight" activeCell="P8" sqref="P8:T15"/>
+      <selection pane="bottomLeft" activeCell="P8" sqref="P8:T15"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="11.625" customWidth="1"/>
-    <col min="19" max="19" width="13" customWidth="1"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>231</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="J1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L1" t="s">
-        <v>80</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1683,228 +1694,88 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>232</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G3" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="O9" s="1"/>
-      <c r="P9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="O10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="P10" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="O11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="O12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P12" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="O13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P13" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="O14" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="O15" t="s">
-        <v>81</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="O16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
+      <c r="C6" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="P13:S13"/>
+  <mergeCells count="3">
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1912,114 +1783,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC21B15-27E1-4B3D-BB3C-DDBDFCD41B40}">
-  <dimension ref="A1:M10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="F1" sqref="F1"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomRight" activeCell="J10" sqref="J10:M10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="11.625" customWidth="1"/>
-    <col min="9" max="9" width="20.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I8" s="1"/>
-      <c r="J8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBDDDF8-354E-435F-9703-C7AB548A0352}">
   <dimension ref="A1:S18"/>
   <sheetViews>
@@ -2147,13 +1910,13 @@
         <v>42</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>31</v>
@@ -2231,12 +1994,12 @@
       <c r="C11" s="1">
         <v>3</v>
       </c>
-      <c r="P11" s="8" t="s">
+      <c r="P11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
@@ -2248,12 +2011,12 @@
       <c r="O12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P12" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
+      <c r="P12" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
@@ -2265,12 +2028,12 @@
       <c r="O13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P13" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
+      <c r="P13" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
@@ -2280,14 +2043,14 @@
         <v>3</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="P14" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
@@ -2299,12 +2062,12 @@
       <c r="O15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P15" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
+      <c r="P15" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
@@ -2316,12 +2079,12 @@
       <c r="O16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P16" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
+      <c r="P16" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
@@ -2331,10 +2094,10 @@
         <v>3</v>
       </c>
       <c r="O17"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
@@ -2343,10 +2106,10 @@
       <c r="C18" s="1">
         <v>3</v>
       </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2364,7 +2127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C01A3B7-D56F-4DD0-9A64-3763CCBE0CCB}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2449,7 +2212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484D51BC-D554-43FF-9540-2BDC7F3C243E}">
   <dimension ref="A1:M12"/>
   <sheetViews>
@@ -2477,16 +2240,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2512,17 +2275,17 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -2531,14 +2294,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="D4" s="1">
         <v>30</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -2547,14 +2310,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="D5" s="1">
         <v>70</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -2563,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -2577,59 +2340,59 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
+        <v>159</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I9" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
+        <v>175</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I10" s="1"/>
-      <c r="J10" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
+      <c r="J10" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I11" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
+        <v>183</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I12" s="1"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2645,7 +2408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545C1D8E-A455-450C-990F-26C4DC0B0504}">
   <dimension ref="A1:R18"/>
   <sheetViews>
@@ -2681,34 +2444,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>17</v>
@@ -2731,22 +2494,22 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>26</v>
@@ -2757,37 +2520,37 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -2885,12 +2648,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
@@ -2904,14 +2667,14 @@
         <v>0</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-      <c r="R9" s="11"/>
+        <v>190</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -2925,14 +2688,14 @@
         <v>0</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O10" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
+        <v>192</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
@@ -2946,14 +2709,14 @@
         <v>0</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
+        <v>199</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
@@ -2966,12 +2729,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
+      <c r="O12" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
@@ -2985,14 +2748,14 @@
         <v>0</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="O13" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+        <v>198</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
@@ -3006,14 +2769,14 @@
         <v>0</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+        <v>206</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
@@ -3026,12 +2789,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="O15" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
@@ -3085,7 +2848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E0F0158-C9F3-482E-B1E5-71F5DEA1A78F}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -3118,13 +2881,13 @@
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>17</v>
@@ -3141,7 +2904,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -3158,22 +2921,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -3302,7 +3065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7297EF2-65DA-40A1-9AE2-7A10BE83B245}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -3335,13 +3098,13 @@
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>17</v>
@@ -3358,7 +3121,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
@@ -3375,22 +3138,22 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -3519,7 +3282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5627A84-336A-4854-9B23-AD736D6D56AD}">
   <dimension ref="A1:I18"/>
   <sheetViews>
@@ -3547,25 +3310,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>17</v>
@@ -3588,7 +3351,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>5</v>
@@ -3605,28 +3368,28 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3637,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -3651,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -3770,7 +3533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185B2696-61D3-40F7-BB37-C05180C2FA10}">
   <dimension ref="A1:R18"/>
   <sheetViews>
@@ -3800,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>37</v>
@@ -3815,19 +3578,19 @@
         <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>17</v>
@@ -3856,7 +3619,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>53</v>
@@ -3876,37 +3639,37 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -3917,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
@@ -3928,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -3939,7 +3702,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -3998,7 +3761,7 @@
         <v>3</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>17</v>
@@ -4012,10 +3775,10 @@
         <v>3</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
@@ -4026,10 +3789,10 @@
         <v>3</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -4040,10 +3803,10 @@
         <v>3</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -4068,92 +3831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4904625-2932-48A5-8EEF-B61598741917}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C897B1F8-AC28-465D-BD0A-D9CEF466AD4F}">
   <dimension ref="A1:O18"/>
   <sheetViews>
@@ -4188,22 +3866,22 @@
         <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>17</v>
@@ -4229,7 +3907,7 @@
         <v>53</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>5</v>
@@ -4246,31 +3924,31 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -4281,7 +3959,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -4292,7 +3970,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -4303,7 +3981,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -4314,7 +3992,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -4365,7 +4043,7 @@
         <v>3</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -4376,7 +4054,7 @@
         <v>3</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -4387,7 +4065,7 @@
         <v>3</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -4398,7 +4076,7 @@
         <v>3</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.3">
@@ -4409,7 +4087,7 @@
         <v>3</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.3">
@@ -4419,6 +4097,91 @@
       <c r="C18" s="1">
         <v>3</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4904625-2932-48A5-8EEF-B61598741917}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -4572,7 +4335,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>18</v>
@@ -4648,51 +4411,51 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4803,12 +4566,12 @@
       <c r="C8" s="1">
         <v>4</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
@@ -4820,10 +4583,10 @@
       <c r="M9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -4835,24 +4598,24 @@
       <c r="M10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="M11" s="3"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="M12" s="3"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="M15" s="1" t="s">
@@ -4938,7 +4701,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
@@ -4980,12 +4743,12 @@
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
@@ -4997,10 +4760,10 @@
       <c r="M9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -5012,24 +4775,24 @@
       <c r="M10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="M11" s="3"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="M12" s="3"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="M15" s="1" t="s">
@@ -5157,12 +4920,12 @@
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
@@ -5174,10 +4937,10 @@
       <c r="M9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
@@ -5187,28 +4950,28 @@
         <v>4</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="N10" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M11" s="3"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M12" s="3"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="M15" s="1" t="s">
@@ -5241,398 +5004,360 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AB6D23-DA36-43CD-8F15-075D4918BAB0}">
-  <dimension ref="A1:T16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB6F902-56A8-4617-9026-5D0C51D6EB58}">
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="14" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.5" customWidth="1"/>
+    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>87</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" t="s">
         <v>78</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" t="s">
-        <v>80</v>
+      <c r="M1" s="1" t="s">
+        <v>241</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>243</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>244</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>82</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>84</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>86</v>
+      <c r="M3" t="s">
+        <v>245</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>3</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
       <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P9" s="1"/>
-      <c r="Q9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P15" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q16" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O9" s="1"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O10" s="1"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O11" s="1"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O12" s="1"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O13" s="1"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O14" s="1"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O16" s="1"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="Q16:T16"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="P14:S14"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B24620-CEBE-48FD-A367-F26D1D85A1F9}">
-  <dimension ref="A1:T15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AB6D23-DA36-43CD-8F15-075D4918BAB0}">
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="F1" sqref="F1"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8:T15"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.625" customWidth="1"/>
-    <col min="20" max="20" width="13.75" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>223</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>224</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="M1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -5640,87 +5365,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>91</v>
+        <v>228</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>1</v>
@@ -5732,10 +5419,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>2</v>
@@ -5747,127 +5437,144 @@
         <v>2</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6" s="1">
         <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P8" s="1"/>
-      <c r="Q8" s="8" t="s">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>304</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O9" s="1"/>
+      <c r="P9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Q9" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O11" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q10" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q11" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q12" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q13" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P14" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q14" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="P15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q15" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
+      <c r="P11" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O15" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="Q15:T15"/>
-    <mergeCell ref="Q14:T14"/>
-    <mergeCell ref="Q8:T8"/>
-    <mergeCell ref="Q9:T9"/>
-    <mergeCell ref="Q10:T10"/>
-    <mergeCell ref="Q11:T11"/>
-    <mergeCell ref="Q12:T12"/>
-    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="P13:S13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Temporary_Table.xlsx
+++ b/Temporary_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836AF1A8-11F2-4D36-863C-276FCA89908E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1E42EA-E3B0-4DCF-9637-EB667DC08ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="8" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4695" yWindow="2055" windowWidth="21600" windowHeight="11385" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InteractableObject" sheetId="3" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="147">
   <si>
     <t>float</t>
   </si>
@@ -618,6 +618,22 @@
   </si>
   <si>
     <t>Quest_image</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>청각 발각 범위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시야 발각 범위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_view_detection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monster_sound_detection</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1053,19 +1069,19 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.69921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="11.3984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="16.19921875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="16.25" style="2" customWidth="1"/>
     <col min="19" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>139</v>
       </c>
@@ -1085,7 +1101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>140</v>
       </c>
@@ -1102,7 +1118,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>141</v>
       </c>
@@ -1116,7 +1132,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="2">
         <v>1</v>
       </c>
@@ -1124,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>2</v>
       </c>
@@ -1132,7 +1148,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>3</v>
       </c>
@@ -1140,7 +1156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>4</v>
       </c>
@@ -1167,17 +1183,17 @@
       <selection pane="bottomRight" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="11.59765625" customWidth="1"/>
-    <col min="9" max="9" width="20.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.625" customWidth="1"/>
+    <col min="9" max="9" width="20.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
@@ -1191,7 +1207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -1205,7 +1221,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
@@ -1219,7 +1235,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>1</v>
@@ -1231,7 +1247,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>2</v>
@@ -1243,7 +1259,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>3</v>
@@ -1255,13 +1271,13 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I9" s="1"/>
     </row>
   </sheetData>
@@ -1272,30 +1288,31 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBDDDF8-354E-435F-9703-C7AB548A0352}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:A3"/>
+      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="18.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="17.69921875" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="17.75" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
@@ -1312,28 +1329,34 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -1350,10 +1373,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>3</v>
@@ -1368,10 +1391,16 @@
         <v>3</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
@@ -1388,28 +1417,34 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1417,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1425,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1433,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1441,7 +1476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1449,7 +1484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -1457,7 +1492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -1465,7 +1500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -1473,7 +1508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -1481,7 +1516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -1489,7 +1524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -1497,7 +1532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -1505,7 +1540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -1513,35 +1548,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>14</v>
       </c>
       <c r="C17" s="1">
         <v>3</v>
       </c>
-      <c r="N17"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="P17"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>15</v>
       </c>
       <c r="C18" s="1">
         <v>3</v>
       </c>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="Q17:T17"/>
+    <mergeCell ref="Q18:T18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1559,19 +1594,19 @@
       <selection pane="bottomRight" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.59765625" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.19921875" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="39" customWidth="1"/>
-    <col min="9" max="9" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
@@ -1588,7 +1623,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -1606,7 +1641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
@@ -1624,7 +1659,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>1</v>
@@ -1640,7 +1675,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>2</v>
@@ -1656,7 +1691,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>3</v>
@@ -1667,7 +1702,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>4</v>
@@ -1676,7 +1711,7 @@
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="I12" s="1"/>
       <c r="J12" s="5"/>
       <c r="K12" s="5"/>
@@ -1696,34 +1731,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545C1D8E-A455-450C-990F-26C4DC0B0504}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.69921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.75" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="24.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="16.59765625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="16.625" style="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
@@ -1761,7 +1796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -1799,7 +1834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
@@ -1837,7 +1872,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1858,7 +1893,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1882,7 +1917,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1906,7 +1941,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1921,7 +1956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1933,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -1945,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -1957,7 +1992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -1969,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -1981,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -1993,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -2005,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -2017,7 +2052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -2029,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -2041,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -2070,15 +2105,15 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
@@ -2089,7 +2124,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -2100,7 +2135,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
@@ -2111,7 +2146,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -2120,7 +2155,7 @@
       </c>
       <c r="D4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -2129,7 +2164,7 @@
       </c>
       <c r="D5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -2155,14 +2190,14 @@
       <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
@@ -2173,7 +2208,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -2184,7 +2219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
@@ -2192,7 +2227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -2200,7 +2235,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -2208,7 +2243,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -2216,17 +2251,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -2248,16 +2283,16 @@
       <selection pane="bottomRight" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
@@ -2271,7 +2306,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -2285,7 +2320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
@@ -2299,7 +2334,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -2310,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -2321,7 +2356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -2332,7 +2367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -2343,7 +2378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>2</v>
       </c>
@@ -2354,7 +2389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>2</v>
       </c>
@@ -2382,20 +2417,20 @@
       <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
@@ -2406,7 +2441,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -2417,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
@@ -2428,7 +2463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -2436,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -2444,7 +2479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -2452,7 +2487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -2460,7 +2495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>2</v>
       </c>
@@ -2468,7 +2503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -2476,7 +2511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>3</v>
       </c>
@@ -2484,13 +2519,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D16"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18"/>
     </row>
   </sheetData>
@@ -2510,20 +2545,20 @@
       <selection pane="bottomRight" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9" style="1" customWidth="1"/>
     <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
@@ -2534,7 +2569,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -2545,7 +2580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
@@ -2556,7 +2591,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -2564,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -2572,7 +2607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -2580,7 +2615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -2588,7 +2623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>2</v>
       </c>
@@ -2596,7 +2631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -2604,7 +2639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>3</v>
       </c>
@@ -2612,13 +2647,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D16"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18"/>
     </row>
   </sheetData>
@@ -2638,20 +2673,20 @@
       <selection pane="bottomRight" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="12" width="9" style="1"/>
-    <col min="13" max="13" width="14.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="17" width="18" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
@@ -2662,7 +2697,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -2673,7 +2708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
@@ -2684,7 +2719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -2692,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -2700,7 +2735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1">
         <v>1</v>
       </c>
@@ -2708,7 +2743,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1">
         <v>2</v>
       </c>
@@ -2716,7 +2751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1">
         <v>2</v>
       </c>
@@ -2724,7 +2759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -2732,7 +2767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1">
         <v>3</v>
       </c>
@@ -2740,13 +2775,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D16"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D17"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18"/>
     </row>
   </sheetData>
@@ -2766,27 +2801,27 @@
       <selection pane="bottomRight" activeCell="P9" sqref="P9:S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.09765625" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
@@ -2830,7 +2865,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -2874,7 +2909,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
@@ -2918,7 +2953,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>1</v>
@@ -2937,7 +2972,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>2</v>
@@ -2956,7 +2991,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>3</v>
@@ -2975,7 +3010,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2983,25 +3018,25 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O14" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="O16" s="1"/>
     </row>
   </sheetData>
@@ -3022,26 +3057,26 @@
       <selection pane="bottomRight" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>139</v>
       </c>
@@ -3065,7 +3100,7 @@
       <c r="I1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>140</v>
       </c>
@@ -3091,7 +3126,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>141</v>
       </c>
@@ -3115,7 +3150,7 @@
       <c r="J3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1">
         <v>1</v>
@@ -3133,7 +3168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1">
         <v>2</v>
@@ -3151,7 +3186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1">
         <v>3</v>
@@ -3169,7 +3204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1">
         <v>4</v>
@@ -3187,7 +3222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O9" s="1"/>
       <c r="P9" s="6" t="s">
         <v>8</v>
@@ -3196,7 +3231,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O10" s="1" t="s">
         <v>31</v>
       </c>
@@ -3207,7 +3242,7 @@
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O11" s="1" t="s">
         <v>34</v>
       </c>
@@ -3218,7 +3253,7 @@
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O12" s="1" t="s">
         <v>64</v>
       </c>
@@ -3229,7 +3264,7 @@
       <c r="R12" s="5"/>
       <c r="S12" s="5"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O13" s="1" t="s">
         <v>65</v>
       </c>
@@ -3240,7 +3275,7 @@
       <c r="R13" s="5"/>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O14" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,7 +3286,7 @@
       <c r="R14" s="5"/>
       <c r="S14" s="5"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O15" t="s">
         <v>56</v>
       </c>
@@ -3262,7 +3297,7 @@
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O16" s="1" t="s">
         <v>49</v>
       </c>

--- a/Temporary_Table.xlsx
+++ b/Temporary_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1E42EA-E3B0-4DCF-9637-EB667DC08ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C366631-A418-4B68-9344-0883A90940E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4695" yWindow="2055" windowWidth="21600" windowHeight="11385" firstSheet="9" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InteractableObject" sheetId="3" r:id="rId1"/>
@@ -445,26 +445,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>출현 채집물 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출현 채집물 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출현 채집물 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채집물 1 채집 확률</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채집물 2 채집 확률</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Resource1_probability</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -485,10 +465,6 @@
     <t>Resource3_probability</t>
   </si>
   <si>
-    <t>채집물 3 채집 확률</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>채집 확률 총합</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -634,6 +610,30 @@
   </si>
   <si>
     <t>Monster_sound_detection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채집품 1 채집 확률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출현 채집품 2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채집품 2 채집 확률</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출현 채집품 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출현 채집품 3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채집품 3 채집 확률</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1083,7 +1083,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1095,7 +1095,7 @@
         <v>92</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -1195,13 +1195,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1223,16 +1223,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1241,10 +1241,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1253,10 +1253,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1265,10 +1265,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1290,11 +1290,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBDDDF8-354E-435F-9703-C7AB548A0352}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1314,7 +1314,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>11</v>
@@ -1329,10 +1329,10 @@
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>17</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>12</v>
@@ -1417,10 +1417,10 @@
         <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>69</v>
@@ -1608,7 +1608,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>72</v>
@@ -1625,7 +1625,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1643,7 +1643,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>73</v>
@@ -1731,11 +1731,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545C1D8E-A455-450C-990F-26C4DC0B0504}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:A3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1760,7 +1760,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>94</v>
@@ -1769,28 +1769,28 @@
         <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -1798,7 +1798,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>95</v>
@@ -1845,28 +1845,28 @@
         <v>97</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>67</v>
@@ -2115,7 +2115,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>39</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -2137,10 +2137,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>41</v>
@@ -2199,7 +2199,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -2294,7 +2294,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>39</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2322,10 +2322,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -2432,7 +2432,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -2560,7 +2560,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2582,7 +2582,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -2688,7 +2688,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2710,7 +2710,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -2823,13 +2823,13 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>32</v>
@@ -2859,15 +2859,15 @@
         <v>55</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2911,13 +2911,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>34</v>
@@ -2947,10 +2947,10 @@
         <v>61</v>
       </c>
       <c r="M3" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2969,7 +2969,7 @@
         <v>3</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -2988,7 +2988,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -3007,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -3078,22 +3078,22 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -3102,7 +3102,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -3128,22 +3128,22 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>

--- a/Temporary_Table.xlsx
+++ b/Temporary_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C366631-A418-4B68-9344-0883A90940E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1A806B-FA2B-419D-A983-FF330A20EF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InteractableObject" sheetId="3" r:id="rId1"/>
@@ -23,9 +23,6 @@
     <sheet name="Quest" sheetId="34" r:id="rId8"/>
     <sheet name="Quest_Objectives" sheetId="21" r:id="rId9"/>
     <sheet name="Quest_Object_Type" sheetId="29" r:id="rId10"/>
-    <sheet name="Monster" sheetId="8" r:id="rId11"/>
-    <sheet name="Monster_Property" sheetId="30" r:id="rId12"/>
-    <sheet name="Resource_Combination" sheetId="33" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -66,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
   <si>
     <t>float</t>
   </si>
@@ -119,68 +116,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>랭크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_rank</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Monster_explanation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 특징 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 특징 2</t>
-  </si>
-  <si>
-    <t>몬스터 특징 3</t>
-  </si>
-  <si>
-    <t>Monster_drops1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 드롭템 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>몬스터 드롭템 2</t>
-  </si>
-  <si>
-    <t>몬스터 드롭템 3</t>
-  </si>
-  <si>
-    <t>Monster_drops2</t>
-  </si>
-  <si>
-    <t>Monster_drops3</t>
-  </si>
-  <si>
-    <t>공격력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>체력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_atk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_hp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>퀘스트 id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -322,38 +261,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Resource_explanation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_property1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_property2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_property3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성 id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Property_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>채집 퀘스트의 id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -382,45 +289,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>속성 보정치</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Property_value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Property_explanation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염 저항 (약)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>화염 저항 (강)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>속성 특징</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Property_attribute</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vulnerable</t>
-  </si>
-  <si>
-    <t>Resistance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Characteristic</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>상호작용 거리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -429,58 +297,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>채집물 조합 id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource_combination_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채집 저항력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource_resistance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource1_probability</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource1_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource2_id</t>
-  </si>
-  <si>
-    <t>Resource2_probability</t>
-  </si>
-  <si>
-    <t>Resource3_id</t>
-  </si>
-  <si>
-    <t>Resource3_probability</t>
-  </si>
-  <si>
-    <t>채집 확률 총합</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Resource_probability_sum</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채집 가능 횟수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gathering_count</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>상호작용 이벤트?</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -594,46 +410,6 @@
   </si>
   <si>
     <t>Quest_image</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>청각 발각 범위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시야 발각 범위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_view_detection</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Monster_sound_detection</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채집품 1 채집 확률</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출현 채집품 2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채집품 2 채집 확률</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출현 채집품 1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출현 채집품 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>채집품 3 채집 확률</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1083,7 +859,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -1092,10 +868,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -1103,7 +879,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -1115,21 +891,21 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1175,12 +951,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC21B15-27E1-4B3D-BB3C-DDBDFCD41B40}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="P8" sqref="P8:T15"/>
       <selection pane="topRight" activeCell="P8" sqref="P8:T15"/>
       <selection pane="bottomLeft" activeCell="P8" sqref="P8:T15"/>
-      <selection pane="bottomRight" sqref="A1:A3"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1195,13 +971,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -1209,30 +985,30 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1241,10 +1017,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1253,10 +1029,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1265,10 +1041,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1279,814 +1055,6 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="I9" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBDDDF8-354E-435F-9703-C7AB548A0352}">
-  <dimension ref="A1:T18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="18.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="17.75" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="P17"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="5"/>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="Q17:T17"/>
-    <mergeCell ref="Q18:T18"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484D51BC-D554-43FF-9540-2BDC7F3C243E}">
-  <dimension ref="A1:M12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
-    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="39" customWidth="1"/>
-    <col min="9" max="9" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="20.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="1">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="1">
-        <v>70</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="I12" s="1"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J12:M12"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{545C1D8E-A455-450C-990F-26C4DC0B0504}">
-  <dimension ref="A1:L18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1"/>
-    <col min="14" max="14" width="24.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="16.625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>50</v>
-      </c>
-      <c r="H4" s="1">
-        <v>50</v>
-      </c>
-      <c r="K4" s="1">
-        <f>SUM(F4,H4,J4)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="H5" s="1">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="J5" s="1">
-        <v>33.4</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" ref="K5:K18" si="0">SUM(F5,H5,J5)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="H6" s="1">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="J6" s="1">
-        <v>33.4</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>100</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="1">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="1">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="1">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="1">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="1">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="1">
-        <v>13</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
-        <v>14</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="1">
-        <v>15</v>
-      </c>
-      <c r="C18" s="1">
-        <v>3</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2115,35 +1083,35 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2151,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D4"/>
     </row>
@@ -2160,7 +1128,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="D5"/>
     </row>
@@ -2169,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -2199,29 +1167,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -2232,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2240,7 +1208,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -2248,7 +1216,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -2294,21 +1262,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2322,16 +1290,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2432,7 +1400,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -2443,7 +1411,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2454,7 +1422,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -2560,18 +1528,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2582,13 +1550,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2688,18 +1656,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -2710,7 +1678,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -2823,60 +1791,60 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="L1" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -2903,54 +1871,54 @@
         <v>2</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="M3" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -2969,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -2988,7 +1956,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -3007,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -3078,22 +2046,22 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -3102,7 +2070,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -3128,22 +2096,22 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -3233,10 +2201,10 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O10" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
@@ -3244,10 +2212,10 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O11" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
@@ -3255,10 +2223,10 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O12" s="1" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
@@ -3266,10 +2234,10 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O13" s="1" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
@@ -3277,10 +2245,10 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O14" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
@@ -3288,10 +2256,10 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O15" t="s">
+        <v>40</v>
+      </c>
+      <c r="P15" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
@@ -3299,10 +2267,10 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="O16" s="1" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>

--- a/Temporary_Table.xlsx
+++ b/Temporary_Table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alama\Documents\GitHub\DungeonRPGDataFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1A806B-FA2B-419D-A983-FF330A20EF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D63FB5-E8BD-4597-A70B-D15580B980F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InteractableObject" sheetId="3" r:id="rId1"/>
@@ -21,8 +21,9 @@
     <sheet name="Area_Resource_Relation" sheetId="20" r:id="rId6"/>
     <sheet name="Area_FarmingSpot_Relation" sheetId="15" r:id="rId7"/>
     <sheet name="Quest" sheetId="34" r:id="rId8"/>
-    <sheet name="Quest_Objectives" sheetId="21" r:id="rId9"/>
-    <sheet name="Quest_Object_Type" sheetId="29" r:id="rId10"/>
+    <sheet name="Quest_Type" sheetId="35" r:id="rId9"/>
+    <sheet name="Quest_Objectives" sheetId="21" r:id="rId10"/>
+    <sheet name="Quest_Object_Type" sheetId="29" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="106">
   <si>
     <t>float</t>
   </si>
@@ -128,10 +129,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>메인 퀘스트 여부</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -309,10 +306,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Quest_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>목표 id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -410,6 +403,82 @@
   </si>
   <si>
     <t>Quest_image</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#퀘스트 종류</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인 퀘스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브 퀘스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10의 자리는 메인,서브 영역</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1의 자리는 해당 퀘스트 발부해주는 npc 번호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;- 1이면 메인, 2이면 서브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종교 주요 인물</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경비병</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행 본점 직원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행 직원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대장장이</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -859,7 +928,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -868,10 +937,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -879,7 +948,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
@@ -891,21 +960,21 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -948,6 +1017,284 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AB6D23-DA36-43CD-8F15-075D4918BAB0}">
+  <dimension ref="A1:S16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="L3" s="1"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>101</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>102</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>203</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>304</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O9" s="1"/>
+      <c r="P9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O15" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="O16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="P16:S16"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="P13:S13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC21B15-27E1-4B3D-BB3C-DDBDFCD41B40}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -956,7 +1303,7 @@
       <selection activeCell="P8" sqref="P8:T15"/>
       <selection pane="topRight" activeCell="P8" sqref="P8:T15"/>
       <selection pane="bottomLeft" activeCell="P8" sqref="P8:T15"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -971,13 +1318,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>8</v>
@@ -985,7 +1332,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -999,16 +1346,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -1017,10 +1364,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -1029,10 +1376,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -1041,10 +1388,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -1083,18 +1430,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1105,13 +1452,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1119,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4"/>
     </row>
@@ -1128,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5"/>
     </row>
@@ -1137,7 +1484,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -1167,18 +1514,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1189,7 +1536,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1200,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1208,7 +1555,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1216,7 +1563,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1262,21 +1609,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1290,16 +1637,16 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1400,7 +1747,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
@@ -1411,7 +1758,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1422,7 +1769,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1528,18 +1875,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1550,13 +1897,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1656,18 +2003,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1678,7 +2025,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1766,7 +2113,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P9" sqref="P9:S16"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1791,60 +2138,60 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" t="s">
-        <v>39</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>2</v>
@@ -1879,46 +2226,46 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
         <v>41</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" t="s">
         <v>43</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="M3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -1928,7 +2275,7 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
@@ -1937,7 +2284,7 @@
         <v>3</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -1956,7 +2303,7 @@
         <v>3</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -1966,7 +2313,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
         <v>3</v>
@@ -1975,7 +2322,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -2015,278 +2362,131 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23AB6D23-DA36-43CD-8F15-075D4918BAB0}">
-  <dimension ref="A1:S16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C3A739F-82C7-462F-9178-4FDC137377D5}">
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:A3"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" customWidth="1"/>
-    <col min="5" max="5" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="14" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>87</v>
-      </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N7">
+        <v>2</v>
+      </c>
+      <c r="O7" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N8">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="1">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N9">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>203</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="O9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N10">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>304</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="O10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="N11">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="O9" s="1"/>
-      <c r="P9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="O10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="O11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="O12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="O13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="O14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="O15" t="s">
-        <v>40</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="O16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
+      <c r="O11" t="s">
+        <v>105</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="P15:S15"/>
-    <mergeCell ref="P16:S16"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="P13:S13"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
